--- a/Keyword Creation/N4 - STATEMENTS OF PAYMENT.xlsx
+++ b/Keyword Creation/N4 - STATEMENTS OF PAYMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">MANDAMIENTO DE DEVOLUCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N4 - PAYMENT FILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPIDIENDO EL CORRESPONDIENTE MANDAMIENTO DE PAGO</t>
   </si>
   <si>
     <t xml:space="preserve">N4 - AMOUNT</t>
@@ -235,16 +241,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.39271255060729"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.67611336032389"/>
@@ -533,23 +539,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -557,79 +584,90 @@
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
